--- a/MarsFramework/ExcelData/TestDataShareSkill.xlsx
+++ b/MarsFramework/ExcelData/TestDataShareSkill.xlsx
@@ -1,28 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vidhya\source\repos\MarsFramework\MarsFramework\MarsFramework\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saara\OneDrive\Documents\Mars Competition Task-2\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9272ECE-833C-43AE-9AC5-5DC008F12B22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A03E19C-E924-4BE9-BA69-154D2FA005A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
     <sheet name="SignIn" sheetId="1" r:id="rId2"/>
     <sheet name="ShareSkill" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>Url</t>
   </si>
@@ -33,9 +46,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>http://www.skillswap.pro/Home</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -51,18 +61,6 @@
     <t>ConfirmPswd</t>
   </si>
   <si>
-    <t>Venugan</t>
-  </si>
-  <si>
-    <t>Vidhya</t>
-  </si>
-  <si>
-    <t>vidhyav9@gmail.com</t>
-  </si>
-  <si>
-    <t>Ithika2015</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -81,9 +79,6 @@
     <t>Testing</t>
   </si>
   <si>
-    <t>Selenium</t>
-  </si>
-  <si>
     <t>Would like to provide selenium training for beginners</t>
   </si>
   <si>
@@ -136,17 +131,70 @@
   </si>
   <si>
     <t>Mon</t>
+  </si>
+  <si>
+    <t>Senior Test Analyst</t>
+  </si>
+  <si>
+    <t>Test Analyst</t>
+  </si>
+  <si>
+    <t>Testing Software and Web Applications</t>
+  </si>
+  <si>
+    <t>Automation Testing</t>
+  </si>
+  <si>
+    <t>Hourly basis service</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Manual Testing</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1000am</t>
+  </si>
+  <si>
+    <t>0500pm</t>
+  </si>
+  <si>
+    <t>0800pm</t>
+  </si>
+  <si>
+    <t>0600am</t>
+  </si>
+  <si>
+    <t>http://localhost:5000/Home</t>
+  </si>
+  <si>
+    <t>jessica@hotmail.com</t>
+  </si>
+  <si>
+    <t>123123</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Smith</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="hh:mm:ss;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +204,12 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -192,13 +246,15 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -540,51 +596,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="27.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
+        <v>46</v>
+      </c>
+      <c r="D2" s="6">
+        <v>123123</v>
+      </c>
+      <c r="E2" s="6">
+        <v>123123</v>
       </c>
     </row>
   </sheetData>
@@ -600,17 +656,17 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="45.88671875" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,148 +677,194 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>46</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="C2" r:id="rId3" display="Test@123" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="1" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24.88671875" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="12" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="8" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" customWidth="1"/>
+    <col min="14" max="14" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="4">
+        <v>45410</v>
+      </c>
+      <c r="I2" s="3">
+        <v>45412</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="N2" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O2" s="6">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="4">
-        <v>43567</v>
-      </c>
-      <c r="I2" s="3">
-        <v>43597</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="G3" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="L2" s="5">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" t="s">
-        <v>35</v>
+      <c r="H3" s="5">
+        <v>45411</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45422</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/MarsFramework/ExcelData/TestDataShareSkill.xlsx
+++ b/MarsFramework/ExcelData/TestDataShareSkill.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saara\OneDrive\Documents\Mars Competition Task-2\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A03E19C-E924-4BE9-BA69-154D2FA005A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB6CD75-D27A-4461-9128-068236250026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5565" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
     <sheet name="SignIn" sheetId="1" r:id="rId2"/>
     <sheet name="ShareSkill" sheetId="2" r:id="rId3"/>
+    <sheet name="EditShareSkill" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
   <si>
     <t>Url</t>
   </si>
@@ -185,6 +186,15 @@
   </si>
   <si>
     <t>Smith</t>
+  </si>
+  <si>
+    <t>Web &amp; Mobile App</t>
+  </si>
+  <si>
+    <t>Unit Testing</t>
+  </si>
+  <si>
+    <t>xxxx</t>
   </si>
 </sst>
 </file>
@@ -596,7 +606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -701,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -871,4 +881,130 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD7A40F-0C5C-4B03-B919-DF0C16BB76A2}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" customWidth="1"/>
+    <col min="14" max="14" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="4">
+        <v>45417</v>
+      </c>
+      <c r="I2" s="3">
+        <v>45432</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/MarsFramework/ExcelData/TestDataShareSkill.xlsx
+++ b/MarsFramework/ExcelData/TestDataShareSkill.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saara\OneDrive\Documents\Mars Competition Task-2\MarsFramework\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c6460faf6f83a1b/Documents/Mars Competition Task-2/MarsFramework/ExcelData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB6CD75-D27A-4461-9128-068236250026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{2AB6CD75-D27A-4461-9128-068236250026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED0865B0-C25D-4329-8E38-753608F9D854}"/>
   <bookViews>
-    <workbookView xWindow="-5565" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5565" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
     <sheet name="SignIn" sheetId="1" r:id="rId2"/>
     <sheet name="ShareSkill" sheetId="2" r:id="rId3"/>
-    <sheet name="EditShareSkill" sheetId="5" r:id="rId4"/>
+    <sheet name="EditShareSkill" sheetId="8" r:id="rId4"/>
+    <sheet name="DeleteShareSkill" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="56">
   <si>
     <t>Url</t>
   </si>
@@ -188,13 +189,22 @@
     <t>Smith</t>
   </si>
   <si>
-    <t>Web &amp; Mobile App</t>
-  </si>
-  <si>
     <t>Unit Testing</t>
   </si>
   <si>
-    <t>xxxx</t>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Software and Web Applications</t>
+  </si>
+  <si>
+    <t>Business Analyst</t>
+  </si>
+  <si>
+    <t>Legal Consulting</t>
+  </si>
+  <si>
+    <t>Document Writing</t>
   </si>
 </sst>
 </file>
@@ -281,6 +291,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -884,16 +898,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD7A40F-0C5C-4B03-B919-DF0C16BB76A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AEC9E37-573F-4730-9B0E-86456FA28C61}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="4" width="20.109375" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" customWidth="1"/>
     <col min="6" max="6" width="24.88671875" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
@@ -955,19 +971,19 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
@@ -994,7 +1010,135 @@
         <v>11</v>
       </c>
       <c r="N2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD7A40F-0C5C-4B03-B919-DF0C16BB76A2}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" customWidth="1"/>
+    <col min="14" max="14" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
         <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="4">
+        <v>45417</v>
+      </c>
+      <c r="I2" s="3">
+        <v>45432</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>50</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>40</v>

--- a/MarsFramework/ExcelData/TestDataShareSkill.xlsx
+++ b/MarsFramework/ExcelData/TestDataShareSkill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c6460faf6f83a1b/Documents/Mars Competition Task-2/MarsFramework/ExcelData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{2AB6CD75-D27A-4461-9128-068236250026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED0865B0-C25D-4329-8E38-753608F9D854}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{2AB6CD75-D27A-4461-9128-068236250026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4553140-E5A9-4F96-8880-6D0829E49E6E}"/>
   <bookViews>
     <workbookView xWindow="-5565" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="58">
   <si>
     <t>Url</t>
   </si>
@@ -138,9 +138,6 @@
     <t>Senior Test Analyst</t>
   </si>
   <si>
-    <t>Test Analyst</t>
-  </si>
-  <si>
     <t>Testing Software and Web Applications</t>
   </si>
   <si>
@@ -205,6 +202,15 @@
   </si>
   <si>
     <t>Document Writing</t>
+  </si>
+  <si>
+    <t>1100am</t>
+  </si>
+  <si>
+    <t>0700pm</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
   </si>
 </sst>
 </file>
@@ -652,13 +658,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
         <v>48</v>
       </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="6">
         <v>123123</v>
@@ -703,13 +709,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -725,14 +731,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="20.109375" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" customWidth="1"/>
     <col min="6" max="6" width="24.88671875" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="12" width="12.6640625" customWidth="1"/>
@@ -823,10 +832,10 @@
         <v>31</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -843,10 +852,10 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
         <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -855,13 +864,13 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
         <v>35</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>36</v>
-      </c>
-      <c r="G3" t="s">
-        <v>37</v>
       </c>
       <c r="H3" s="5">
         <v>45411</v>
@@ -870,22 +879,22 @@
         <v>45422</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s">
         <v>11</v>
       </c>
       <c r="N3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="P3" t="s">
         <v>12</v>
@@ -902,7 +911,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:E2"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -971,25 +980,25 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>54</v>
       </c>
-      <c r="E2" t="s">
-        <v>55</v>
-      </c>
       <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
         <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
       </c>
       <c r="H2" s="4">
         <v>45417</v>
@@ -998,22 +1007,22 @@
         <v>45432</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="M2" t="s">
         <v>11</v>
       </c>
       <c r="N2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P2" t="s">
         <v>29</v>
@@ -1030,13 +1039,13 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" customWidth="1"/>
     <col min="3" max="4" width="20.109375" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" customWidth="1"/>
     <col min="6" max="6" width="24.88671875" customWidth="1"/>
@@ -1099,25 +1108,25 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>54</v>
       </c>
-      <c r="E2" t="s">
-        <v>55</v>
-      </c>
       <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
         <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
       </c>
       <c r="H2" s="4">
         <v>45417</v>
@@ -1126,22 +1135,22 @@
         <v>45432</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="M2" t="s">
         <v>11</v>
       </c>
       <c r="N2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P2" t="s">
         <v>29</v>

--- a/MarsFramework/ExcelData/TestDataShareSkill.xlsx
+++ b/MarsFramework/ExcelData/TestDataShareSkill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c6460faf6f83a1b/Documents/Mars Competition Task-2/MarsFramework/ExcelData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{2AB6CD75-D27A-4461-9128-068236250026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4553140-E5A9-4F96-8880-6D0829E49E6E}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{2AB6CD75-D27A-4461-9128-068236250026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2EF58D1-43C8-4574-9F06-F76B2A82985D}"/>
   <bookViews>
-    <workbookView xWindow="-5565" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="67">
   <si>
     <t>Url</t>
   </si>
@@ -211,6 +211,33 @@
   </si>
   <si>
     <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>Digital Marketing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advertising </t>
+  </si>
+  <si>
+    <t>Design website banners and assist with web visuals</t>
+  </si>
+  <si>
+    <t>Social Media Marketing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttestt105</t>
+  </si>
+  <si>
+    <t>Testtesttesttestte20</t>
+  </si>
+  <si>
+    <t>Testing Software and Web ApplicationsTesting 555 Testing Software and Web ApplicationsTesting Software and Web ApplicationsTesting Software and Web ApplicationsTesting Software and Web Applications403Testing Software and Web ApplicationsTesting Software and Web ApplicationsTesting Software and Web ApplicationsTesting Software and Web ApplicationsTesting Software and Web ApplicationsTesting Software and Web ApplicationsTesting Software and Web ApplicationsTesting Software and Web ApplicationsTesting Software and Web ApplicationsTesting Software and Web ApplicationsTesting Software and Web Ap600603</t>
+  </si>
+  <si>
+    <t>Testing Software and Web ApplicationsTesting 555 Testing Software and Web ApplicationsTesting Software and Web ApplicationsTesting Software and Web ApplicationsTesting Software and Web Applications197</t>
   </si>
 </sst>
 </file>
@@ -220,7 +247,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +267,12 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -272,7 +305,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
@@ -281,6 +314,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -729,10 +765,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -740,7 +776,7 @@
     <col min="1" max="1" width="20.109375" customWidth="1"/>
     <col min="2" max="2" width="48.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.88671875" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
     <col min="5" max="5" width="20.88671875" customWidth="1"/>
     <col min="6" max="6" width="24.88671875" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
@@ -898,6 +934,78 @@
       </c>
       <c r="P3" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1038,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD7A40F-0C5C-4B03-B919-DF0C16BB76A2}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
